--- a/ldp_v2.xlsx
+++ b/ldp_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11004"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jagawron/Box Sync/Cisco Live 2020 EMEA/LTRRST-2641 - How to deploy SDA network using API ?/idle/idle-source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jagawron/Documents/Devnet/projects/idle-source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DA0A46-FEB6-0B47-9D42-19F060A3387D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C769BD-1011-6342-BFF2-0996AB605BF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16000" yWindow="-21140" windowWidth="38400" windowHeight="20060" tabRatio="858" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20200" tabRatio="858" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="build_tasks" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="185">
   <si>
     <t>include</t>
   </si>
@@ -553,9 +553,6 @@
     <t>pod1pod1</t>
   </si>
   <si>
-    <t>UTC</t>
-  </si>
-  <si>
     <t>POD1_Barcelona</t>
   </si>
   <si>
@@ -596,6 +593,12 @@
   </si>
   <si>
     <t>privatePOD1</t>
+  </si>
+  <si>
+    <t>US/Pacific</t>
+  </si>
+  <si>
+    <t>pod1pod2</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1258,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1269,7 +1272,7 @@
         <v>131</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1628,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
         <v>132</v>
@@ -1680,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -1691,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -1743,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
         <v>164</v>
@@ -1754,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
         <v>139</v>
@@ -1777,7 +1780,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1871,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
         <v>155</v>
@@ -1894,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
         <v>156</v>
@@ -2035,13 +2038,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -2052,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" t="s">
         <v>181</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>182</v>
-      </c>
-      <c r="D3" t="s">
-        <v>183</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -2084,8 +2087,8 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2151,7 +2154,7 @@
         <v>168</v>
       </c>
       <c r="H2" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -2185,7 +2188,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2225,7 +2228,7 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2654,7 +2657,7 @@
         <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2669,7 +2672,7 @@
         <v>151</v>
       </c>
       <c r="J3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2683,7 +2686,7 @@
         <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
